--- a/GATEWAY/A1#111LOGO80X00000/Log80_s.r.l/MEDICAL_80/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111LOGO80X00000/Log80_s.r.l/MEDICAL_80/1.0/report-checklist.xlsx
@@ -21,11 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$383</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -61,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="893">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4685,6 +4680,24 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.985ca4b25548f895283e6dcc2edc30398af0a82157187c67bfe4ea758586423a.5cc73a2b83^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore validazione CDA: Campo token JWT non valido.</t>
+  </si>
+  <si>
+    <t>Errore validazione CDA: il servizio ha impiegato troppo tempo a rispondere.</t>
+  </si>
+  <si>
+    <t>Errore validazione CDA: Errore semantico.</t>
+  </si>
+  <si>
+    <t>Errore validazione CDA: Errore vocabolario.</t>
+  </si>
+  <si>
+    <t>In questo caso il documento viene comunque fatto firmare e pubblicato. Si potrà decidere con il cliente se impostare re-invii automatici o manuali.</t>
+  </si>
+  <si>
+    <t>Si potrà decidere con il cliente se rendere l'errore bloccante, e quindi chiedere di correggere il dato all'operatore di back-office prima di procedere con la firma e con la pubblicazione, oppure proseguire comunque con la firma e pubblicazione del documento ed eventualmente correggere successivamente il problema con un referto sostitutivo.</t>
   </si>
 </sst>
 </file>
@@ -5007,7 +5020,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5119,6 +5132,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7605,7 +7630,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J362" sqref="J362"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7794,7 +7819,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="15"/>
     </row>
-    <row r="9" spans="1:20" ht="37.5">
+    <row r="9" spans="1:20" ht="38.25" thickBot="1">
       <c r="A9" s="17" t="s">
         <v>24</v>
       </c>
@@ -8026,7 +8051,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="150">
+    <row r="15" spans="1:20" ht="150.75" thickBot="1">
       <c r="A15" s="20">
         <v>6</v>
       </c>
@@ -8063,14 +8088,16 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
+      <c r="Q15" s="46" t="s">
+        <v>846</v>
+      </c>
       <c r="R15" s="26"/>
       <c r="S15" s="27"/>
       <c r="T15" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="150">
+    <row r="16" spans="1:20" ht="150.75" thickBot="1">
       <c r="A16" s="20">
         <v>7</v>
       </c>
@@ -8108,7 +8135,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="150">
+    <row r="17" spans="1:20" ht="150.75" thickBot="1">
       <c r="A17" s="20">
         <v>8</v>
       </c>
@@ -8146,7 +8173,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="150">
+    <row r="18" spans="1:20" ht="150.75" thickBot="1">
       <c r="A18" s="20">
         <v>9</v>
       </c>
@@ -8762,7 +8789,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="150">
+    <row r="36" spans="1:20" ht="210.75" thickBot="1">
       <c r="A36" s="20">
         <v>29</v>
       </c>
@@ -8794,19 +8821,31 @@
         <v>139</v>
       </c>
       <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
+      <c r="L36" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="M36" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="N36" s="48" t="s">
+        <v>887</v>
+      </c>
+      <c r="O36" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="P36" s="49" t="s">
+        <v>892</v>
+      </c>
+      <c r="Q36" s="47" t="s">
+        <v>846</v>
+      </c>
       <c r="R36" s="26"/>
       <c r="S36" s="27"/>
       <c r="T36" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="150" hidden="1">
+    <row r="37" spans="1:20" ht="150.75" hidden="1" thickBot="1">
       <c r="A37" s="20">
         <v>30</v>
       </c>
@@ -9044,7 +9083,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="165">
+    <row r="44" spans="1:20" ht="210.75" thickBot="1">
       <c r="A44" s="20">
         <v>37</v>
       </c>
@@ -9076,19 +9115,31 @@
         <v>139</v>
       </c>
       <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
+      <c r="L44" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="M44" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="N44" s="48" t="s">
+        <v>887</v>
+      </c>
+      <c r="O44" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="P44" s="49" t="s">
+        <v>892</v>
+      </c>
+      <c r="Q44" s="48" t="s">
+        <v>846</v>
+      </c>
       <c r="R44" s="26"/>
       <c r="S44" s="27"/>
       <c r="T44" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="165" hidden="1">
+    <row r="45" spans="1:20" ht="165.75" hidden="1" thickBot="1">
       <c r="A45" s="20">
         <v>38</v>
       </c>
@@ -9328,7 +9379,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="60">
+    <row r="52" spans="1:20" ht="60.75" thickBot="1">
       <c r="A52" s="20">
         <v>45</v>
       </c>
@@ -9356,12 +9407,24 @@
         <v>139</v>
       </c>
       <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
+      <c r="L52" s="48" t="s">
+        <v>848</v>
+      </c>
+      <c r="M52" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="N52" s="48" t="s">
+        <v>888</v>
+      </c>
+      <c r="O52" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="P52" s="49" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q52" s="48" t="s">
+        <v>846</v>
+      </c>
       <c r="R52" s="26" t="s">
         <v>139</v>
       </c>
@@ -9960,7 +10023,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="120">
+    <row r="70" spans="1:20" ht="120.75" thickBot="1">
       <c r="A70" s="20">
         <v>63</v>
       </c>
@@ -9986,7 +10049,7 @@
       <c r="K70" s="25" t="s">
         <v>865</v>
       </c>
-      <c r="L70" s="25"/>
+      <c r="L70" s="48"/>
       <c r="M70" s="25"/>
       <c r="N70" s="25"/>
       <c r="O70" s="25"/>
@@ -9998,7 +10061,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="120">
+    <row r="71" spans="1:20" ht="120.75" thickBot="1">
       <c r="A71" s="20">
         <v>64</v>
       </c>
@@ -10024,7 +10087,7 @@
       <c r="K71" s="25" t="s">
         <v>866</v>
       </c>
-      <c r="L71" s="25"/>
+      <c r="L71" s="48"/>
       <c r="M71" s="25"/>
       <c r="N71" s="25"/>
       <c r="O71" s="25"/>
@@ -10036,7 +10099,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="120.75" thickBot="1">
+    <row r="72" spans="1:20" ht="210.75" thickBot="1">
       <c r="A72" s="20">
         <v>65</v>
       </c>
@@ -10068,12 +10131,24 @@
         <v>139</v>
       </c>
       <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="25"/>
-      <c r="P72" s="25"/>
-      <c r="Q72" s="25"/>
+      <c r="L72" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="M72" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="N72" s="48" t="s">
+        <v>889</v>
+      </c>
+      <c r="O72" s="48" t="s">
+        <v>848</v>
+      </c>
+      <c r="P72" s="49" t="s">
+        <v>892</v>
+      </c>
+      <c r="Q72" s="48" t="s">
+        <v>846</v>
+      </c>
       <c r="R72" s="26"/>
       <c r="S72" s="27"/>
       <c r="T72" s="28" t="s">
@@ -10106,7 +10181,7 @@
       <c r="K73" s="25" t="s">
         <v>870</v>
       </c>
-      <c r="L73" s="25"/>
+      <c r="L73" s="48"/>
       <c r="M73" s="25"/>
       <c r="N73" s="25"/>
       <c r="O73" s="25"/>
@@ -10118,7 +10193,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="120.75" thickBot="1">
+    <row r="74" spans="1:20" ht="210.75" thickBot="1">
       <c r="A74" s="20">
         <v>67</v>
       </c>
@@ -10150,19 +10225,31 @@
         <v>139</v>
       </c>
       <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="25"/>
-      <c r="O74" s="25"/>
-      <c r="P74" s="25"/>
-      <c r="Q74" s="25"/>
+      <c r="L74" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="M74" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="N74" s="48" t="s">
+        <v>889</v>
+      </c>
+      <c r="O74" s="48" t="s">
+        <v>848</v>
+      </c>
+      <c r="P74" s="49" t="s">
+        <v>892</v>
+      </c>
+      <c r="Q74" s="48" t="s">
+        <v>846</v>
+      </c>
       <c r="R74" s="26"/>
       <c r="S74" s="27"/>
       <c r="T74" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="120.75" thickBot="1">
+    <row r="75" spans="1:20" ht="210.75" thickBot="1">
       <c r="A75" s="20">
         <v>68</v>
       </c>
@@ -10194,19 +10281,31 @@
         <v>139</v>
       </c>
       <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="25"/>
-      <c r="O75" s="25"/>
-      <c r="P75" s="25"/>
-      <c r="Q75" s="25"/>
+      <c r="L75" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="M75" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="N75" s="48" t="s">
+        <v>889</v>
+      </c>
+      <c r="O75" s="48" t="s">
+        <v>848</v>
+      </c>
+      <c r="P75" s="49" t="s">
+        <v>892</v>
+      </c>
+      <c r="Q75" s="48" t="s">
+        <v>846</v>
+      </c>
       <c r="R75" s="26"/>
       <c r="S75" s="27"/>
       <c r="T75" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="120.75" thickBot="1">
+    <row r="76" spans="1:20" ht="210.75" thickBot="1">
       <c r="A76" s="20">
         <v>69</v>
       </c>
@@ -10238,19 +10337,31 @@
         <v>139</v>
       </c>
       <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="25"/>
-      <c r="O76" s="25"/>
-      <c r="P76" s="25"/>
-      <c r="Q76" s="25"/>
+      <c r="L76" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="M76" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="N76" s="48" t="s">
+        <v>889</v>
+      </c>
+      <c r="O76" s="48" t="s">
+        <v>848</v>
+      </c>
+      <c r="P76" s="49" t="s">
+        <v>892</v>
+      </c>
+      <c r="Q76" s="48" t="s">
+        <v>846</v>
+      </c>
       <c r="R76" s="26"/>
       <c r="S76" s="27"/>
       <c r="T76" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="120.75" thickBot="1">
+    <row r="77" spans="1:20" ht="210.75" thickBot="1">
       <c r="A77" s="20">
         <v>70</v>
       </c>
@@ -10282,12 +10393,24 @@
         <v>139</v>
       </c>
       <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="25"/>
-      <c r="O77" s="25"/>
-      <c r="P77" s="25"/>
-      <c r="Q77" s="25"/>
+      <c r="L77" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="M77" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="N77" s="48" t="s">
+        <v>889</v>
+      </c>
+      <c r="O77" s="48" t="s">
+        <v>848</v>
+      </c>
+      <c r="P77" s="49" t="s">
+        <v>892</v>
+      </c>
+      <c r="Q77" s="48" t="s">
+        <v>846</v>
+      </c>
       <c r="R77" s="26"/>
       <c r="S77" s="27"/>
       <c r="T77" s="28" t="s">
@@ -10320,7 +10443,7 @@
       <c r="K78" s="25" t="s">
         <v>877</v>
       </c>
-      <c r="L78" s="25"/>
+      <c r="L78" s="48"/>
       <c r="M78" s="25"/>
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
@@ -10358,7 +10481,7 @@
       <c r="K79" s="25" t="s">
         <v>877</v>
       </c>
-      <c r="L79" s="25"/>
+      <c r="L79" s="48"/>
       <c r="M79" s="25"/>
       <c r="N79" s="25"/>
       <c r="O79" s="25"/>
@@ -10370,7 +10493,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="120.75" thickBot="1">
+    <row r="80" spans="1:20" ht="210.75" thickBot="1">
       <c r="A80" s="20">
         <v>73</v>
       </c>
@@ -10402,12 +10525,24 @@
         <v>139</v>
       </c>
       <c r="K80" s="25"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="25"/>
-      <c r="O80" s="25"/>
-      <c r="P80" s="25"/>
-      <c r="Q80" s="25"/>
+      <c r="L80" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="M80" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="N80" s="48" t="s">
+        <v>890</v>
+      </c>
+      <c r="O80" s="48" t="s">
+        <v>848</v>
+      </c>
+      <c r="P80" s="49" t="s">
+        <v>892</v>
+      </c>
+      <c r="Q80" s="48" t="s">
+        <v>846</v>
+      </c>
       <c r="R80" s="26"/>
       <c r="S80" s="27"/>
       <c r="T80" s="28" t="s">
@@ -10440,7 +10575,7 @@
       <c r="K81" s="25" t="s">
         <v>877</v>
       </c>
-      <c r="L81" s="25"/>
+      <c r="L81" s="48"/>
       <c r="M81" s="25"/>
       <c r="N81" s="25"/>
       <c r="O81" s="25"/>
@@ -14974,7 +15109,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="210">
+    <row r="215" spans="1:20" ht="210.75" thickBot="1">
       <c r="A215" s="20">
         <v>208</v>
       </c>
@@ -15008,7 +15143,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="255">
+    <row r="216" spans="1:20" ht="255.75" thickBot="1">
       <c r="A216" s="20">
         <v>209</v>
       </c>
@@ -15484,7 +15619,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="240">
+    <row r="230" spans="1:20" ht="240.75" thickBot="1">
       <c r="A230" s="20">
         <v>223</v>
       </c>
@@ -18918,7 +19053,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="285">
+    <row r="331" spans="1:20" ht="285.75" thickBot="1">
       <c r="A331" s="20">
         <v>324</v>
       </c>
@@ -18952,7 +19087,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="240">
+    <row r="332" spans="1:20" ht="240.75" thickBot="1">
       <c r="A332" s="20">
         <v>325</v>
       </c>
@@ -19020,7 +19155,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="270">
+    <row r="334" spans="1:20" ht="270.75" thickBot="1">
       <c r="A334" s="20">
         <v>327</v>
       </c>
@@ -19938,7 +20073,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="361" spans="1:20" ht="255">
+    <row r="361" spans="1:20" ht="255.75" thickBot="1">
       <c r="A361" s="20">
         <v>354</v>
       </c>
@@ -19972,7 +20107,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="362" spans="1:20" ht="225">
+    <row r="362" spans="1:20" ht="225.75" thickBot="1">
       <c r="A362" s="20">
         <v>355</v>
       </c>
@@ -20485,7 +20620,9 @@
       <c r="N376" s="25"/>
       <c r="O376" s="25"/>
       <c r="P376" s="25"/>
-      <c r="Q376" s="25"/>
+      <c r="Q376" s="48" t="s">
+        <v>846</v>
+      </c>
       <c r="R376" s="26"/>
       <c r="S376" s="27"/>
       <c r="T376" s="28" t="s">
@@ -25398,11 +25535,11 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O375:O383 L10:M36 O10:O36 J38 L38:M38 O38 J19:J35 L40:M44 O40:O44 J46 L46:M46 O46 J40:J43 L48:M52 O48:O52 J10:J14 L54:M198 O54:O198 J375:J383 L375:M383 J48:J51 J54:J71 J82:J198 J73:J77 J80">
+  <dataValidations disablePrompts="1" count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O375:O383 O54:O198 O10:O36 J38 L38:M38 O38 J19:J35 L10:M36 O40:O44 J46 L46:M46 O46 J40:J43 J80 O48:O52 J10:J14 L48:M52 L54:M198 J375:J383 L375:M383 J48:J51 J54:J71 J82:J198 J73:J77 L40:M44">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q10:Q36 Q38 Q40:Q44 Q46 Q48:Q52 Q54:Q198 Q375:Q383">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q10:Q36 Q38 Q40:Q44 Q46 Q54:Q198 Q48:Q52 Q375:Q383">
       <formula1>Sheet1!$A$2:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J15:J18 J36 J44 J52 J72">

--- a/GATEWAY/A1#111LOGO80X00000/Log80_s.r.l/MEDICAL_80/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111LOGO80X00000/Log80_s.r.l/MEDICAL_80/1.0/report-checklist.xlsx
@@ -4577,12 +4577,6 @@
     <t>subject_application_version: 1.0</t>
   </si>
   <si>
-    <t>9c25a39758ff8419</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.d432d578260b3769f32d852d1f1fe3f24f26f5cfbe1cc19af51f5f998e152bfe.741ce9882a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>49becb6aa64f2957</t>
   </si>
   <si>
@@ -4592,9 +4586,6 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>2023-09-25T12:33:25Z</t>
-  </si>
-  <si>
     <t>2023-09-25T14:37:36Z</t>
   </si>
   <si>
@@ -4604,15 +4595,6 @@
     <t>2023-09-25T14:42:45Z</t>
   </si>
   <si>
-    <t>2023-09-25T14:27:08Z</t>
-  </si>
-  <si>
-    <t>473fdcdb207f5e45</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.619c880fe6cddac388d815bfbfee642b18ed2cf033d59a177384219fcfb04aa2.c0ddb6e6a9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Non sono gestiti alcuni campi opzionali nel dettaglio richiesto</t>
   </si>
   <si>
@@ -4698,6 +4680,24 @@
   </si>
   <si>
     <t>Si potrà decidere con il cliente se rendere l'errore bloccante, e quindi chiedere di correggere il dato all'operatore di back-office prima di procedere con la firma e con la pubblicazione, oppure proseguire comunque con la firma e pubblicazione del documento ed eventualmente correggere successivamente il problema con un referto sostitutivo.</t>
+  </si>
+  <si>
+    <t>2023-10-09T10:05:08Z</t>
+  </si>
+  <si>
+    <t>0391e0ba997b0a73</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.d432d578260b3769f32d852d1f1fe3f24f26f5cfbe1cc19af51f5f998e152bfe.d18dc5b57a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-10-09T10:15:38Z</t>
+  </si>
+  <si>
+    <t>e620b1d30a640c3f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.619c880fe6cddac388d815bfbfee642b18ed2cf033d59a177384219fcfb04aa2.bd08c78a46^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5111,6 +5111,18 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5132,18 +5144,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7627,10 +7627,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="N362" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="P376" sqref="P376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7668,12 +7668,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="18.75">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="41"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7691,14 +7691,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="15.75">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="49" t="s">
         <v>849</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="41"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7716,12 +7716,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="15.75">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="45" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="49" t="s">
         <v>850</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7740,12 +7740,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="15.75">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="41"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -7763,8 +7763,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -8068,16 +8068,16 @@
         <v>59</v>
       </c>
       <c r="F15" s="23">
-        <v>45194</v>
+        <v>45208</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>852</v>
+        <v>888</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>853</v>
+        <v>889</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>139</v>
@@ -8088,7 +8088,7 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
-      <c r="Q15" s="46" t="s">
+      <c r="Q15" s="34" t="s">
         <v>846</v>
       </c>
       <c r="R15" s="26"/>
@@ -8121,7 +8121,7 @@
         <v>848</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
@@ -8159,7 +8159,7 @@
         <v>848</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -8197,7 +8197,7 @@
         <v>848</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -8809,34 +8809,34 @@
         <v>45194</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="H36" s="24" t="s">
+        <v>852</v>
+      </c>
+      <c r="I36" s="24" t="s">
         <v>854</v>
-      </c>
-      <c r="I36" s="24" t="s">
-        <v>856</v>
       </c>
       <c r="J36" s="25" t="s">
         <v>139</v>
       </c>
       <c r="K36" s="25"/>
-      <c r="L36" s="48" t="s">
+      <c r="L36" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="M36" s="48" t="s">
+      <c r="M36" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="N36" s="48" t="s">
-        <v>887</v>
-      </c>
-      <c r="O36" s="48" t="s">
+      <c r="N36" s="36" t="s">
+        <v>881</v>
+      </c>
+      <c r="O36" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="P36" s="49" t="s">
-        <v>892</v>
-      </c>
-      <c r="Q36" s="47" t="s">
+      <c r="P36" s="37" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q36" s="35" t="s">
         <v>846</v>
       </c>
       <c r="R36" s="26"/>
@@ -9103,34 +9103,34 @@
         <v>45194</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="J44" s="25" t="s">
         <v>139</v>
       </c>
       <c r="K44" s="25"/>
-      <c r="L44" s="48" t="s">
+      <c r="L44" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="M44" s="48" t="s">
+      <c r="M44" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="N44" s="48" t="s">
-        <v>887</v>
-      </c>
-      <c r="O44" s="48" t="s">
+      <c r="N44" s="36" t="s">
+        <v>881</v>
+      </c>
+      <c r="O44" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="P44" s="49" t="s">
-        <v>892</v>
-      </c>
-      <c r="Q44" s="48" t="s">
+      <c r="P44" s="37" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q44" s="36" t="s">
         <v>846</v>
       </c>
       <c r="R44" s="26"/>
@@ -9379,7 +9379,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="60.75" thickBot="1">
+    <row r="52" spans="1:20" ht="90.75" thickBot="1">
       <c r="A52" s="20">
         <v>45</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>45194</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
@@ -9407,22 +9407,22 @@
         <v>139</v>
       </c>
       <c r="K52" s="25"/>
-      <c r="L52" s="48" t="s">
+      <c r="L52" s="36" t="s">
         <v>848</v>
       </c>
-      <c r="M52" s="48" t="s">
+      <c r="M52" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="N52" s="48" t="s">
-        <v>888</v>
-      </c>
-      <c r="O52" s="48" t="s">
+      <c r="N52" s="36" t="s">
+        <v>882</v>
+      </c>
+      <c r="O52" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="P52" s="49" t="s">
-        <v>891</v>
-      </c>
-      <c r="Q52" s="48" t="s">
+      <c r="P52" s="37" t="s">
+        <v>885</v>
+      </c>
+      <c r="Q52" s="36" t="s">
         <v>846</v>
       </c>
       <c r="R52" s="26" t="s">
@@ -10047,9 +10047,9 @@
         <v>848</v>
       </c>
       <c r="K70" s="25" t="s">
-        <v>865</v>
-      </c>
-      <c r="L70" s="48"/>
+        <v>859</v>
+      </c>
+      <c r="L70" s="36"/>
       <c r="M70" s="25"/>
       <c r="N70" s="25"/>
       <c r="O70" s="25"/>
@@ -10085,9 +10085,9 @@
         <v>848</v>
       </c>
       <c r="K71" s="25" t="s">
-        <v>866</v>
-      </c>
-      <c r="L71" s="48"/>
+        <v>860</v>
+      </c>
+      <c r="L71" s="36"/>
       <c r="M71" s="25"/>
       <c r="N71" s="25"/>
       <c r="O71" s="25"/>
@@ -10119,34 +10119,34 @@
         <v>45194</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="J72" s="25" t="s">
         <v>139</v>
       </c>
       <c r="K72" s="25"/>
-      <c r="L72" s="48" t="s">
+      <c r="L72" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="M72" s="48" t="s">
+      <c r="M72" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="N72" s="48" t="s">
-        <v>889</v>
-      </c>
-      <c r="O72" s="48" t="s">
+      <c r="N72" s="36" t="s">
+        <v>883</v>
+      </c>
+      <c r="O72" s="36" t="s">
         <v>848</v>
       </c>
-      <c r="P72" s="49" t="s">
-        <v>892</v>
-      </c>
-      <c r="Q72" s="48" t="s">
+      <c r="P72" s="37" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q72" s="36" t="s">
         <v>846</v>
       </c>
       <c r="R72" s="26"/>
@@ -10179,9 +10179,9 @@
         <v>848</v>
       </c>
       <c r="K73" s="25" t="s">
-        <v>870</v>
-      </c>
-      <c r="L73" s="48"/>
+        <v>864</v>
+      </c>
+      <c r="L73" s="36"/>
       <c r="M73" s="25"/>
       <c r="N73" s="25"/>
       <c r="O73" s="25"/>
@@ -10213,34 +10213,34 @@
         <v>45194</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="I74" s="24" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="J74" s="25" t="s">
         <v>139</v>
       </c>
       <c r="K74" s="25"/>
-      <c r="L74" s="48" t="s">
+      <c r="L74" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="M74" s="48" t="s">
+      <c r="M74" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="N74" s="48" t="s">
-        <v>889</v>
-      </c>
-      <c r="O74" s="48" t="s">
+      <c r="N74" s="36" t="s">
+        <v>883</v>
+      </c>
+      <c r="O74" s="36" t="s">
         <v>848</v>
       </c>
-      <c r="P74" s="49" t="s">
-        <v>892</v>
-      </c>
-      <c r="Q74" s="48" t="s">
+      <c r="P74" s="37" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q74" s="36" t="s">
         <v>846</v>
       </c>
       <c r="R74" s="26"/>
@@ -10269,34 +10269,34 @@
         <v>45194</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="J75" s="25" t="s">
         <v>139</v>
       </c>
       <c r="K75" s="25"/>
-      <c r="L75" s="48" t="s">
+      <c r="L75" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="M75" s="48" t="s">
+      <c r="M75" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="N75" s="48" t="s">
-        <v>889</v>
-      </c>
-      <c r="O75" s="48" t="s">
+      <c r="N75" s="36" t="s">
+        <v>883</v>
+      </c>
+      <c r="O75" s="36" t="s">
         <v>848</v>
       </c>
-      <c r="P75" s="49" t="s">
-        <v>892</v>
-      </c>
-      <c r="Q75" s="48" t="s">
+      <c r="P75" s="37" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q75" s="36" t="s">
         <v>846</v>
       </c>
       <c r="R75" s="26"/>
@@ -10325,34 +10325,34 @@
         <v>45194</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="I76" s="24" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="J76" s="25" t="s">
         <v>139</v>
       </c>
       <c r="K76" s="25"/>
-      <c r="L76" s="48" t="s">
+      <c r="L76" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="M76" s="48" t="s">
+      <c r="M76" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="N76" s="48" t="s">
-        <v>889</v>
-      </c>
-      <c r="O76" s="48" t="s">
+      <c r="N76" s="36" t="s">
+        <v>883</v>
+      </c>
+      <c r="O76" s="36" t="s">
         <v>848</v>
       </c>
-      <c r="P76" s="49" t="s">
-        <v>892</v>
-      </c>
-      <c r="Q76" s="48" t="s">
+      <c r="P76" s="37" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q76" s="36" t="s">
         <v>846</v>
       </c>
       <c r="R76" s="26"/>
@@ -10381,34 +10381,34 @@
         <v>45194</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="J77" s="25" t="s">
         <v>139</v>
       </c>
       <c r="K77" s="25"/>
-      <c r="L77" s="48" t="s">
+      <c r="L77" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="M77" s="48" t="s">
+      <c r="M77" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="N77" s="48" t="s">
-        <v>889</v>
-      </c>
-      <c r="O77" s="48" t="s">
+      <c r="N77" s="36" t="s">
+        <v>883</v>
+      </c>
+      <c r="O77" s="36" t="s">
         <v>848</v>
       </c>
-      <c r="P77" s="49" t="s">
-        <v>892</v>
-      </c>
-      <c r="Q77" s="48" t="s">
+      <c r="P77" s="37" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q77" s="36" t="s">
         <v>846</v>
       </c>
       <c r="R77" s="26"/>
@@ -10441,9 +10441,9 @@
         <v>848</v>
       </c>
       <c r="K78" s="25" t="s">
-        <v>877</v>
-      </c>
-      <c r="L78" s="48"/>
+        <v>871</v>
+      </c>
+      <c r="L78" s="36"/>
       <c r="M78" s="25"/>
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
@@ -10479,9 +10479,9 @@
         <v>848</v>
       </c>
       <c r="K79" s="25" t="s">
-        <v>877</v>
-      </c>
-      <c r="L79" s="48"/>
+        <v>871</v>
+      </c>
+      <c r="L79" s="36"/>
       <c r="M79" s="25"/>
       <c r="N79" s="25"/>
       <c r="O79" s="25"/>
@@ -10513,34 +10513,34 @@
         <v>45194</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="J80" s="25" t="s">
         <v>139</v>
       </c>
       <c r="K80" s="25"/>
-      <c r="L80" s="48" t="s">
+      <c r="L80" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="M80" s="48" t="s">
+      <c r="M80" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="N80" s="48" t="s">
-        <v>890</v>
-      </c>
-      <c r="O80" s="48" t="s">
+      <c r="N80" s="36" t="s">
+        <v>884</v>
+      </c>
+      <c r="O80" s="36" t="s">
         <v>848</v>
       </c>
-      <c r="P80" s="49" t="s">
-        <v>892</v>
-      </c>
-      <c r="Q80" s="48" t="s">
+      <c r="P80" s="37" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q80" s="36" t="s">
         <v>846</v>
       </c>
       <c r="R80" s="26"/>
@@ -10573,9 +10573,9 @@
         <v>848</v>
       </c>
       <c r="K81" s="25" t="s">
-        <v>877</v>
-      </c>
-      <c r="L81" s="48"/>
+        <v>871</v>
+      </c>
+      <c r="L81" s="36"/>
       <c r="M81" s="25"/>
       <c r="N81" s="25"/>
       <c r="O81" s="25"/>
@@ -20600,16 +20600,16 @@
         <v>780</v>
       </c>
       <c r="F376" s="23">
-        <v>45194</v>
+        <v>45208</v>
       </c>
       <c r="G376" s="24" t="s">
-        <v>861</v>
+        <v>890</v>
       </c>
       <c r="H376" s="24" t="s">
-        <v>862</v>
+        <v>891</v>
       </c>
       <c r="I376" s="24" t="s">
-        <v>863</v>
+        <v>892</v>
       </c>
       <c r="J376" s="25" t="s">
         <v>139</v>
@@ -20620,7 +20620,7 @@
       <c r="N376" s="25"/>
       <c r="O376" s="25"/>
       <c r="P376" s="25"/>
-      <c r="Q376" s="48" t="s">
+      <c r="Q376" s="36" t="s">
         <v>846</v>
       </c>
       <c r="R376" s="26"/>

--- a/GATEWAY/A1#111LOGO80X00000/Log80_s.r.l/MEDICAL_80/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111LOGO80X00000/Log80_s.r.l/MEDICAL_80/1.0/report-checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="975" windowWidth="29040" windowHeight="15720" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28860" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$48</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="260">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1026,6 +1026,22 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.60.4.4.25d2fc9c17eb9741951429d9736cdc905ae1c38163f6964136578d79a5e05977.9df783acf3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT26_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2025-12-10T15:25:58Z</t>
+  </si>
+  <si>
+    <t>e58052bb8aea6409c040598a5ada5a94</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.60.4.4.25d2fc9c17eb9741951429d9736cdc905ae1c38163f6964136578d79a5e05977.fb0383f115^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1601,6 +1617,16 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1623,14 +1649,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3079,40 +3099,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W602"/>
+  <dimension ref="A1:W603"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K46" sqref="K46"/>
+      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="88.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="86.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="146.140625" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="172.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="101.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="215" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="166.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="48" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3139,14 +3159,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="18.75">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="49"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3167,14 +3187,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="15.75">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="45"/>
+      <c r="D3" s="49"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3195,12 +3215,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="15.75">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="53" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3222,12 +3242,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="15.75">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="49"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3248,8 +3268,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3313,7 +3333,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="9"/>
     </row>
-    <row r="9" spans="1:23" s="18" customFormat="1" ht="57" thickBot="1">
+    <row r="9" spans="1:23" s="18" customFormat="1" ht="19.5" thickBot="1">
       <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
@@ -3384,7 +3404,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="255.75" thickBot="1">
+    <row r="10" spans="1:23" ht="135.75" thickBot="1">
       <c r="A10" s="33">
         <v>29</v>
       </c>
@@ -3435,7 +3455,7 @@
       <c r="R10" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S10" s="54" t="s">
+      <c r="S10" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T10" s="35" t="s">
@@ -3447,7 +3467,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="255.75" thickBot="1">
+    <row r="11" spans="1:23" ht="135.75" thickBot="1">
       <c r="A11" s="33">
         <v>32</v>
       </c>
@@ -3498,7 +3518,7 @@
       <c r="R11" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S11" s="54" t="s">
+      <c r="S11" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T11" s="35" t="s">
@@ -3510,7 +3530,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="255.75" thickBot="1">
+    <row r="12" spans="1:23" ht="135.75" thickBot="1">
       <c r="A12" s="33">
         <v>37</v>
       </c>
@@ -3561,7 +3581,7 @@
       <c r="R12" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S12" s="54" t="s">
+      <c r="S12" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T12" s="35" t="s">
@@ -3573,7 +3593,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="255.75" thickBot="1">
+    <row r="13" spans="1:23" ht="135.75" thickBot="1">
       <c r="A13" s="33">
         <v>40</v>
       </c>
@@ -3624,7 +3644,7 @@
       <c r="R13" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S13" s="54" t="s">
+      <c r="S13" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T13" s="35" t="s">
@@ -3636,7 +3656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="195.75" thickBot="1">
+    <row r="14" spans="1:23" ht="60.75" thickBot="1">
       <c r="A14" s="33">
         <v>45</v>
       </c>
@@ -3670,7 +3690,7 @@
       <c r="N14" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O14" s="55" t="s">
+      <c r="O14" s="44" t="s">
         <v>183</v>
       </c>
       <c r="P14" s="35" t="s">
@@ -3682,7 +3702,7 @@
       <c r="R14" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S14" s="55" t="s">
+      <c r="S14" s="44" t="s">
         <v>178</v>
       </c>
       <c r="T14" s="35" t="s">
@@ -3696,7 +3716,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="195.75" thickBot="1">
+    <row r="15" spans="1:23" ht="60.75" thickBot="1">
       <c r="A15" s="33">
         <v>48</v>
       </c>
@@ -3731,7 +3751,7 @@
       <c r="N15" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O15" s="55" t="s">
+      <c r="O15" s="44" t="s">
         <v>183</v>
       </c>
       <c r="P15" s="35" t="s">
@@ -3743,7 +3763,7 @@
       <c r="R15" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S15" s="55" t="s">
+      <c r="S15" s="44" t="s">
         <v>178</v>
       </c>
       <c r="T15" s="35" t="s">
@@ -3757,7 +3777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="225.75" thickBot="1">
+    <row r="16" spans="1:23" ht="75.75" thickBot="1">
       <c r="A16" s="33">
         <v>64</v>
       </c>
@@ -3800,7 +3820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="225.75" thickBot="1">
+    <row r="17" spans="1:23" ht="75.75" thickBot="1">
       <c r="A17" s="33">
         <v>66</v>
       </c>
@@ -3843,7 +3863,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="225.75" thickBot="1">
+    <row r="18" spans="1:23" ht="75.75" thickBot="1">
       <c r="A18" s="33">
         <v>67</v>
       </c>
@@ -3882,7 +3902,7 @@
       <c r="N18" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O18" s="56" t="s">
+      <c r="O18" s="45" t="s">
         <v>187</v>
       </c>
       <c r="P18" s="35" t="s">
@@ -3894,7 +3914,7 @@
       <c r="R18" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S18" s="54" t="s">
+      <c r="S18" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T18" s="35" t="s">
@@ -3906,7 +3926,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="225.75" thickBot="1">
+    <row r="19" spans="1:23" ht="75.75" thickBot="1">
       <c r="A19" s="33">
         <v>68</v>
       </c>
@@ -3945,7 +3965,7 @@
       <c r="N19" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O19" s="56" t="s">
+      <c r="O19" s="45" t="s">
         <v>188</v>
       </c>
       <c r="P19" s="35" t="s">
@@ -3957,7 +3977,7 @@
       <c r="R19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S19" s="54" t="s">
+      <c r="S19" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T19" s="35" t="s">
@@ -3969,7 +3989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="225.75" thickBot="1">
+    <row r="20" spans="1:23" ht="75.75" thickBot="1">
       <c r="A20" s="33">
         <v>69</v>
       </c>
@@ -4008,7 +4028,7 @@
       <c r="N20" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O20" s="56" t="s">
+      <c r="O20" s="45" t="s">
         <v>187</v>
       </c>
       <c r="P20" s="35" t="s">
@@ -4020,7 +4040,7 @@
       <c r="R20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S20" s="54" t="s">
+      <c r="S20" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T20" s="35" t="s">
@@ -4032,7 +4052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="225.75" thickBot="1">
+    <row r="21" spans="1:23" ht="75.75" thickBot="1">
       <c r="A21" s="33">
         <v>70</v>
       </c>
@@ -4071,7 +4091,7 @@
       <c r="N21" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O21" s="56" t="s">
+      <c r="O21" s="45" t="s">
         <v>187</v>
       </c>
       <c r="P21" s="35" t="s">
@@ -4083,7 +4103,7 @@
       <c r="R21" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S21" s="54" t="s">
+      <c r="S21" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T21" s="35" t="s">
@@ -4095,7 +4115,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="225.75" thickBot="1">
+    <row r="22" spans="1:23" ht="75.75" thickBot="1">
       <c r="A22" s="33">
         <v>71</v>
       </c>
@@ -4134,7 +4154,7 @@
       <c r="N22" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O22" s="56" t="s">
+      <c r="O22" s="45" t="s">
         <v>187</v>
       </c>
       <c r="P22" s="35" t="s">
@@ -4146,7 +4166,7 @@
       <c r="R22" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S22" s="54" t="s">
+      <c r="S22" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T22" s="35" t="s">
@@ -4158,7 +4178,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="225.75" thickBot="1">
+    <row r="23" spans="1:23" ht="75.75" thickBot="1">
       <c r="A23" s="33">
         <v>72</v>
       </c>
@@ -4197,7 +4217,7 @@
       <c r="N23" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O23" s="56" t="s">
+      <c r="O23" s="45" t="s">
         <v>187</v>
       </c>
       <c r="P23" s="35" t="s">
@@ -4209,7 +4229,7 @@
       <c r="R23" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S23" s="54" t="s">
+      <c r="S23" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T23" s="35" t="s">
@@ -4221,7 +4241,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="225.75" thickBot="1">
+    <row r="24" spans="1:23" ht="75.75" thickBot="1">
       <c r="A24" s="33">
         <v>73</v>
       </c>
@@ -4260,7 +4280,7 @@
       <c r="N24" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O24" s="56" t="s">
+      <c r="O24" s="45" t="s">
         <v>188</v>
       </c>
       <c r="P24" s="35" t="s">
@@ -4272,7 +4292,7 @@
       <c r="R24" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S24" s="54" t="s">
+      <c r="S24" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T24" s="35" t="s">
@@ -4284,7 +4304,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="225.75" thickBot="1">
+    <row r="25" spans="1:23" ht="75.75" thickBot="1">
       <c r="A25" s="33">
         <v>74</v>
       </c>
@@ -4323,7 +4343,7 @@
       <c r="N25" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O25" s="56" t="s">
+      <c r="O25" s="45" t="s">
         <v>188</v>
       </c>
       <c r="P25" s="35" t="s">
@@ -4335,7 +4355,7 @@
       <c r="R25" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S25" s="54" t="s">
+      <c r="S25" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T25" s="35" t="s">
@@ -4347,7 +4367,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="225.75" thickBot="1">
+    <row r="26" spans="1:23" ht="75.75" thickBot="1">
       <c r="A26" s="33">
         <v>152</v>
       </c>
@@ -4390,7 +4410,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="225.75" thickBot="1">
+    <row r="27" spans="1:23" ht="75.75" thickBot="1">
       <c r="A27" s="33">
         <v>154</v>
       </c>
@@ -4433,7 +4453,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="225.75" thickBot="1">
+    <row r="28" spans="1:23" ht="75.75" thickBot="1">
       <c r="A28" s="33">
         <v>155</v>
       </c>
@@ -4472,7 +4492,7 @@
       <c r="N28" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O28" s="56" t="s">
+      <c r="O28" s="45" t="s">
         <v>187</v>
       </c>
       <c r="P28" s="35" t="s">
@@ -4484,7 +4504,7 @@
       <c r="R28" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S28" s="54" t="s">
+      <c r="S28" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T28" s="35" t="s">
@@ -4496,7 +4516,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="225.75" thickBot="1">
+    <row r="29" spans="1:23" ht="75.75" thickBot="1">
       <c r="A29" s="33">
         <v>156</v>
       </c>
@@ -4535,7 +4555,7 @@
       <c r="N29" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O29" s="56" t="s">
+      <c r="O29" s="45" t="s">
         <v>188</v>
       </c>
       <c r="P29" s="35" t="s">
@@ -4547,7 +4567,7 @@
       <c r="R29" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S29" s="54" t="s">
+      <c r="S29" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T29" s="35" t="s">
@@ -4559,7 +4579,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="225.75" thickBot="1">
+    <row r="30" spans="1:23" ht="75.75" thickBot="1">
       <c r="A30" s="33">
         <v>159</v>
       </c>
@@ -4598,7 +4618,7 @@
       <c r="N30" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O30" s="56" t="s">
+      <c r="O30" s="45" t="s">
         <v>231</v>
       </c>
       <c r="P30" s="35" t="s">
@@ -4610,7 +4630,7 @@
       <c r="R30" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S30" s="54" t="s">
+      <c r="S30" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T30" s="35" t="s">
@@ -4622,7 +4642,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="225.75" thickBot="1">
+    <row r="31" spans="1:23" ht="75.75" thickBot="1">
       <c r="A31" s="33">
         <v>160</v>
       </c>
@@ -4661,7 +4681,7 @@
       <c r="N31" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O31" s="56" t="s">
+      <c r="O31" s="45" t="s">
         <v>231</v>
       </c>
       <c r="P31" s="35" t="s">
@@ -4673,7 +4693,7 @@
       <c r="R31" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S31" s="54" t="s">
+      <c r="S31" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T31" s="35" t="s">
@@ -4685,7 +4705,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="225.75" thickBot="1">
+    <row r="32" spans="1:23" ht="75.75" thickBot="1">
       <c r="A32" s="33">
         <v>161</v>
       </c>
@@ -4726,7 +4746,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="225.75" thickBot="1">
+    <row r="33" spans="1:23" ht="75.75" thickBot="1">
       <c r="A33" s="33">
         <v>162</v>
       </c>
@@ -4767,7 +4787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="225.75" thickBot="1">
+    <row r="34" spans="1:23" ht="75.75" thickBot="1">
       <c r="A34" s="33">
         <v>163</v>
       </c>
@@ -4806,7 +4826,7 @@
       <c r="N34" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O34" s="56" t="s">
+      <c r="O34" s="45" t="s">
         <v>187</v>
       </c>
       <c r="P34" s="35" t="s">
@@ -4818,7 +4838,7 @@
       <c r="R34" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S34" s="54" t="s">
+      <c r="S34" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T34" s="35" t="s">
@@ -4830,7 +4850,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="225.75" thickBot="1">
+    <row r="35" spans="1:23" ht="75.75" thickBot="1">
       <c r="A35" s="33">
         <v>164</v>
       </c>
@@ -4869,7 +4889,7 @@
       <c r="N35" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O35" s="56" t="s">
+      <c r="O35" s="45" t="s">
         <v>187</v>
       </c>
       <c r="P35" s="35" t="s">
@@ -4881,7 +4901,7 @@
       <c r="R35" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S35" s="54" t="s">
+      <c r="S35" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T35" s="35" t="s">
@@ -4893,7 +4913,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="225.75" thickBot="1">
+    <row r="36" spans="1:23" ht="75.75" thickBot="1">
       <c r="A36" s="33">
         <v>165</v>
       </c>
@@ -4932,7 +4952,7 @@
       <c r="N36" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O36" s="56" t="s">
+      <c r="O36" s="45" t="s">
         <v>187</v>
       </c>
       <c r="P36" s="35" t="s">
@@ -4944,7 +4964,7 @@
       <c r="R36" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S36" s="54" t="s">
+      <c r="S36" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T36" s="35" t="s">
@@ -4956,7 +4976,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="225.75" thickBot="1">
+    <row r="37" spans="1:23" ht="75.75" thickBot="1">
       <c r="A37" s="33">
         <v>166</v>
       </c>
@@ -4995,7 +5015,7 @@
       <c r="N37" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O37" s="56" t="s">
+      <c r="O37" s="45" t="s">
         <v>187</v>
       </c>
       <c r="P37" s="35" t="s">
@@ -5007,7 +5027,7 @@
       <c r="R37" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S37" s="54" t="s">
+      <c r="S37" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T37" s="35" t="s">
@@ -5019,7 +5039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="225.75" thickBot="1">
+    <row r="38" spans="1:23" ht="75.75" thickBot="1">
       <c r="A38" s="33">
         <v>167</v>
       </c>
@@ -5058,7 +5078,7 @@
       <c r="N38" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O38" s="56" t="s">
+      <c r="O38" s="45" t="s">
         <v>187</v>
       </c>
       <c r="P38" s="35" t="s">
@@ -5070,7 +5090,7 @@
       <c r="R38" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S38" s="54" t="s">
+      <c r="S38" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T38" s="35" t="s">
@@ -5082,7 +5102,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="225.75" thickBot="1">
+    <row r="39" spans="1:23" ht="75.75" thickBot="1">
       <c r="A39" s="33">
         <v>168</v>
       </c>
@@ -5121,7 +5141,7 @@
       <c r="N39" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O39" s="56" t="s">
+      <c r="O39" s="45" t="s">
         <v>188</v>
       </c>
       <c r="P39" s="35" t="s">
@@ -5133,7 +5153,7 @@
       <c r="R39" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S39" s="54" t="s">
+      <c r="S39" s="43" t="s">
         <v>174</v>
       </c>
       <c r="T39" s="35" t="s">
@@ -5145,7 +5165,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="225.75" thickBot="1">
+    <row r="40" spans="1:23" ht="75.75" thickBot="1">
       <c r="A40" s="33">
         <v>169</v>
       </c>
@@ -5186,7 +5206,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="285.75" thickBot="1">
+    <row r="41" spans="1:23" ht="105.75" thickBot="1">
       <c r="A41" s="33">
         <v>448</v>
       </c>
@@ -5234,7 +5254,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="285.75" thickBot="1">
+    <row r="42" spans="1:23" ht="105.75" thickBot="1">
       <c r="A42" s="33">
         <v>449</v>
       </c>
@@ -5275,7 +5295,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="285.75" thickBot="1">
+    <row r="43" spans="1:23" ht="90.75" thickBot="1">
       <c r="A43" s="33">
         <v>450</v>
       </c>
@@ -5324,7 +5344,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="285.75" thickBot="1">
+    <row r="44" spans="1:23" ht="90.75" thickBot="1">
       <c r="A44" s="33">
         <v>451</v>
       </c>
@@ -5365,62 +5385,84 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="225.75" thickBot="1">
+    <row r="45" spans="1:23" s="42" customFormat="1" ht="75.75" thickBot="1">
       <c r="A45" s="33">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B45" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
+        <v>256</v>
+      </c>
+      <c r="F45" s="58">
+        <v>46001</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>259</v>
+      </c>
       <c r="J45" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K45" s="35"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="K45" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L45" s="33"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="35"/>
+      <c r="N45" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="O45" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="P45" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q45" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="R45" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="S45" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="T45" s="35" t="s">
+        <v>87</v>
+      </c>
       <c r="U45" s="33"/>
       <c r="V45" s="33"/>
       <c r="W45" s="33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="225.75" thickBot="1">
+    <row r="46" spans="1:23" ht="75.75" thickBot="1">
       <c r="A46" s="33">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B46" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -5447,9 +5489,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="225.75" thickBot="1">
+    <row r="47" spans="1:23" ht="75.75" thickBot="1">
       <c r="A47" s="33">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B47" s="33" t="s">
         <v>34</v>
@@ -5458,55 +5500,76 @@
         <v>46</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="39"/>
+        <v>148</v>
+      </c>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
       <c r="J47" s="35" t="s">
         <v>89</v>
       </c>
       <c r="K47" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="L47" s="35"/>
+        <v>216</v>
+      </c>
+      <c r="L47" s="33"/>
       <c r="M47" s="35"/>
       <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
+      <c r="O47" s="33"/>
       <c r="P47" s="35"/>
       <c r="Q47" s="35"/>
       <c r="R47" s="35"/>
-      <c r="S47" s="35"/>
+      <c r="S47" s="33"/>
       <c r="T47" s="35"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="35" t="s">
+      <c r="U47" s="33"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="9"/>
+    <row r="48" spans="1:23" ht="75.75" thickBot="1">
+      <c r="A48" s="33">
+        <v>475</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K48" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="35" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="49" spans="6:23">
       <c r="F49" s="6"/>
@@ -8249,7 +8312,24 @@
       <c r="W185" s="9"/>
     </row>
     <row r="186" spans="6:23">
-      <c r="W186" s="7"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="7"/>
+      <c r="K186" s="7"/>
+      <c r="L186" s="7"/>
+      <c r="M186" s="7"/>
+      <c r="N186" s="7"/>
+      <c r="O186" s="7"/>
+      <c r="P186" s="7"/>
+      <c r="Q186" s="7"/>
+      <c r="R186" s="7"/>
+      <c r="S186" s="7"/>
+      <c r="T186" s="7"/>
+      <c r="U186" s="8"/>
+      <c r="V186" s="2"/>
+      <c r="W186" s="9"/>
     </row>
     <row r="187" spans="6:23">
       <c r="W187" s="7"/>
@@ -9499,8 +9579,13 @@
     <row r="602" spans="23:23">
       <c r="W602" s="7"/>
     </row>
+    <row r="603" spans="23:23">
+      <c r="W603" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:W47"/>
+  <autoFilter ref="A9:W48">
+    <filterColumn colId="0"/>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -9521,19 +9606,19 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P10:R47 J10:J47 M10:N47</xm:sqref>
+          <xm:sqref>P10:R48 J10:J48 M10:N48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>T10:T47</xm:sqref>
+          <xm:sqref>T10:T48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DE61C5E-9DA3-4CE3-A1FF-8FBE651EA6B5}">
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K47</xm:sqref>
+          <xm:sqref>K10:K48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11796,15 +11881,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -12062,6 +12138,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
@@ -12080,14 +12165,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12106,6 +12183,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
